--- a/139-images-source-supprimer-les-fichiers-non-utilisés/ig/StructureDefinition-sdo-task.xlsx
+++ b/139-images-source-supprimer-les-fichiers-non-utilisés/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T14:48:49+00:00</t>
+    <t>2024-09-26T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
